--- a/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
+++ b/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
+++ b/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
+++ b/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
+++ b/main/ig/CodeSystem-FrMedicationIGMedicationProfileList.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
